--- a/dataset/day_8.xlsx
+++ b/dataset/day_8.xlsx
@@ -883,7 +883,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -19075,7 +19075,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -27631,7 +27631,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -30603,7 +30603,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -32655,7 +32655,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -37851,7 +37851,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -38223,7 +38223,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -41487,7 +41487,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -43339,7 +43339,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -45791,7 +45791,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -47603,7 +47603,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -47895,7 +47895,7 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -48387,7 +48387,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -49559,7 +49559,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -50251,7 +50251,7 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -55983,7 +55983,7 @@
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1381" t="inlineStr">
@@ -62155,7 +62155,7 @@
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1535" t="inlineStr">
@@ -63367,7 +63367,7 @@
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1565" t="inlineStr">
